--- a/SVD_Files/DMA.xlsx
+++ b/SVD_Files/DMA.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
   <si>
     <t>0x0C</t>
   </si>
@@ -120,9 +121,6 @@
     <t>28..31</t>
   </si>
   <si>
-    <t>teste_status</t>
-  </si>
-  <si>
     <t>0x0 = controller does not include the integration test logic</t>
   </si>
   <si>
@@ -330,9 +328,6 @@
     <t>Start channel</t>
   </si>
   <si>
-    <t>Enable channel processing</t>
-  </si>
-  <si>
     <t>Disable single transfer requests</t>
   </si>
   <si>
@@ -343,6 +338,51 @@
   </si>
   <si>
     <t>When HIGH, it prevents dma_active[] from deasserting until</t>
+  </si>
+  <si>
+    <t>BE1</t>
+  </si>
+  <si>
+    <t>BE3</t>
+  </si>
+  <si>
+    <t>BE9x</t>
+  </si>
+  <si>
+    <t>ВЦ1901</t>
+  </si>
+  <si>
+    <t>BE4</t>
+  </si>
+  <si>
+    <t>BK214</t>
+  </si>
+  <si>
+    <t>BE234</t>
+  </si>
+  <si>
+    <t>Base Addr</t>
+  </si>
+  <si>
+    <t>0x4002_8000</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>80 Bytes</t>
+  </si>
+  <si>
+    <t>test_status</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>Config Register</t>
+  </si>
+  <si>
+    <t>Disable channel processing</t>
   </si>
 </sst>
 </file>
@@ -402,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -414,6 +454,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -696,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D50" sqref="D49:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,50 +896,50 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
         <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -905,69 +951,69 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>8</v>
@@ -975,10 +1021,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
         <v>54</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -986,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>8</v>
@@ -1006,320 +1052,402 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
         <v>63</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="D49" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D50" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="8" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SVD_Files/DMA.xlsx
+++ b/SVD_Files/DMA.xlsx
@@ -430,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -438,26 +438,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -740,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E79"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,621 +773,823 @@
     <col min="4" max="4" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>0</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="D49" s="6" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="6" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D53" t="s">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="D56" s="6"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D57" t="s">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="D60" s="6"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="6"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4" t="s">
         <v>87</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+    </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D73" t="s">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+    </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D76" t="s">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4" t="s">
         <v>92</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="4"/>
+      <c r="B78" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="C78" s="4"/>
+      <c r="D78" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="4"/>
+      <c r="B79" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="C79" s="4"/>
+      <c r="D79" s="9" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1375,7 +1598,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,70 +1607,93 @@
     <col min="2" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>116</v>
       </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SVD_Files/DMA.xlsx
+++ b/SVD_Files/DMA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="158">
   <si>
     <t>0x0C</t>
   </si>
@@ -364,9 +364,6 @@
     <t>Base Addr</t>
   </si>
   <si>
-    <t>0x4002_8000</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -383,6 +380,120 @@
   </si>
   <si>
     <t>Disable channel processing</t>
+  </si>
+  <si>
+    <t>0x50</t>
+  </si>
+  <si>
+    <t>0x54</t>
+  </si>
+  <si>
+    <t>0x58</t>
+  </si>
+  <si>
+    <t>0x5C</t>
+  </si>
+  <si>
+    <t>0x60</t>
+  </si>
+  <si>
+    <t>0x64</t>
+  </si>
+  <si>
+    <t>0x68</t>
+  </si>
+  <si>
+    <t>0x6C</t>
+  </si>
+  <si>
+    <t>CHMUX0</t>
+  </si>
+  <si>
+    <t>CHMUX1</t>
+  </si>
+  <si>
+    <t>CHMUX2</t>
+  </si>
+  <si>
+    <t>CHMUX3</t>
+  </si>
+  <si>
+    <t>CHMUX4</t>
+  </si>
+  <si>
+    <t>CHMUX5</t>
+  </si>
+  <si>
+    <t>CHMUX6</t>
+  </si>
+  <si>
+    <t>CHMUX7</t>
+  </si>
+  <si>
+    <t>4,5,6,7 channels</t>
+  </si>
+  <si>
+    <t>Periph sel for 0,1,2,3 chanels</t>
+  </si>
+  <si>
+    <t>12,13,14,15 channels</t>
+  </si>
+  <si>
+    <t>8,9,10,11 channels</t>
+  </si>
+  <si>
+    <t>16,17,18,19 channels</t>
+  </si>
+  <si>
+    <t>20,21,22,23 channels</t>
+  </si>
+  <si>
+    <t>24,25,26,27 channels</t>
+  </si>
+  <si>
+    <t>28,29,30,31 channels</t>
+  </si>
+  <si>
+    <t>0..7</t>
+  </si>
+  <si>
+    <t>16..23</t>
+  </si>
+  <si>
+    <t>24..31</t>
+  </si>
+  <si>
+    <t>channel[x*4 + 0]</t>
+  </si>
+  <si>
+    <t>channel[x*4 + 1]</t>
+  </si>
+  <si>
+    <t>channel[x*4 + 2]</t>
+  </si>
+  <si>
+    <t>channel[x*4 + 3]</t>
+  </si>
+  <si>
+    <t>One of 256(max) Periph block Select</t>
+  </si>
+  <si>
+    <t>BE8</t>
+  </si>
+  <si>
+    <t>Esila</t>
+  </si>
+  <si>
+    <t>VK014</t>
+  </si>
+  <si>
+    <t>0x40028000</t>
+  </si>
+  <si>
+    <t>0xE0042000</t>
+  </si>
+  <si>
+    <t>0x40006000</t>
   </si>
 </sst>
 </file>
@@ -416,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +537,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,12 +586,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,6 +607,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -761,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51:G72"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,22 +903,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2"/>
@@ -797,337 +926,337 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>0</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="9" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="9" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E38"/>
@@ -1135,36 +1264,36 @@
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E41"/>
@@ -1172,62 +1301,62 @@
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="9" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="3"/>
+      <c r="B45" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="9" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E47"/>
@@ -1235,50 +1364,50 @@
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="10" t="s">
+      <c r="A49" s="3"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="10" t="s">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E52"/>
@@ -1286,34 +1415,34 @@
       <c r="G52"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E55"/>
@@ -1321,271 +1450,411 @@
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="D56" s="5"/>
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>120</v>
+      <c r="D59" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59"/>
     </row>
     <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="D60" s="5"/>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="6"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="6"/>
+      <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="3"/>
+      <c r="B78" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="9" t="s">
+      <c r="C78" s="3"/>
+      <c r="D78" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="8" t="s">
+      <c r="A79" s="3"/>
+      <c r="B79" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="9" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="8" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1595,102 +1864,134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.7109375" customWidth="1"/>
+    <col min="2" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="I1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>70</v>
+      </c>
+      <c r="J5" s="7">
+        <v>70</v>
+      </c>
+      <c r="K5" s="7">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
